--- a/Documentation/Test Reports/Mobilenet_ssd speed tests.xlsx
+++ b/Documentation/Test Reports/Mobilenet_ssd speed tests.xlsx
@@ -604,6 +604,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -637,17 +643,70 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -747,6 +806,60 @@
         <right style="medium">
           <color indexed="64"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -877,119 +990,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2090,16 +2090,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2120,16 +2120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1645920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2138,7 +2138,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5554980" y="3147060"/>
+          <a:off x="9898380" y="3017520"/>
           <a:ext cx="3230880" cy="1120140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2197,63 +2197,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A3:J7" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A3:J7" totalsRowShown="0" headerRowDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="A3:J7"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Type" dataDxfId="19"/>
-    <tableColumn id="2" name="Visualised" dataDxfId="18"/>
-    <tableColumn id="3" name="Ram available (GB)" dataDxfId="17"/>
-    <tableColumn id="4" name="Initial Memory to create TF device (mb)" dataDxfId="16"/>
-    <tableColumn id="5" name="Final Memory to create TF device (mb)" dataDxfId="15"/>
-    <tableColumn id="6" name="Min Frames" dataDxfId="14"/>
-    <tableColumn id="7" name="Corresponding Objects" dataDxfId="13"/>
-    <tableColumn id="8" name="Max Frames " dataDxfId="12"/>
-    <tableColumn id="9" name="Corresponding Objects2" dataDxfId="11"/>
-    <tableColumn id="10" name="Average" dataDxfId="10"/>
+    <tableColumn id="1" name="Type" dataDxfId="34"/>
+    <tableColumn id="2" name="Visualised" dataDxfId="33"/>
+    <tableColumn id="3" name="Ram available (GB)" dataDxfId="32"/>
+    <tableColumn id="4" name="Initial Memory to create TF device (mb)" dataDxfId="31"/>
+    <tableColumn id="5" name="Final Memory to create TF device (mb)" dataDxfId="30"/>
+    <tableColumn id="6" name="Min Frames" dataDxfId="29"/>
+    <tableColumn id="7" name="Corresponding Objects" dataDxfId="28"/>
+    <tableColumn id="8" name="Max Frames " dataDxfId="27"/>
+    <tableColumn id="9" name="Corresponding Objects2" dataDxfId="26"/>
+    <tableColumn id="10" name="Average" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A12:J16" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A12:J16" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A12:J16"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Type"/>
     <tableColumn id="2" name="Visualised"/>
-    <tableColumn id="3" name="Ram available (GB)" dataDxfId="32"/>
-    <tableColumn id="4" name="Initial Memory to create TF device (mb)" dataDxfId="31"/>
-    <tableColumn id="5" name="Final Memory to create TF device (mb)" dataDxfId="30"/>
-    <tableColumn id="6" name="Min Frames" dataDxfId="29"/>
+    <tableColumn id="3" name="Ram available (GB)" dataDxfId="20"/>
+    <tableColumn id="4" name="Initial Memory to create TF device (mb)" dataDxfId="19"/>
+    <tableColumn id="5" name="Final Memory to create TF device (mb)" dataDxfId="18"/>
+    <tableColumn id="6" name="Min Frames" dataDxfId="17"/>
     <tableColumn id="7" name="Corresponding Objects"/>
     <tableColumn id="8" name="Max Frames"/>
     <tableColumn id="9" name="Corresponding Objects2"/>
-    <tableColumn id="10" name="Average" dataDxfId="28"/>
+    <tableColumn id="10" name="Average" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B3:S7" totalsRowShown="0" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B3:S7" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="B3:S7"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Visualised"/>
     <tableColumn id="2" name="Ram available (GB)"/>
     <tableColumn id="3" name="Initial Memory to create TF device (mb)"/>
     <tableColumn id="4" name="Final Memory to create TF device (mb)"/>
-    <tableColumn id="5" name="Min Frames" dataDxfId="8"/>
+    <tableColumn id="5" name="Min Frames" dataDxfId="14"/>
     <tableColumn id="6" name="Corresponding Objects"/>
-    <tableColumn id="7" name="Max Frames " dataDxfId="7"/>
+    <tableColumn id="7" name="Max Frames " dataDxfId="13"/>
     <tableColumn id="8" name="Corresponding Objects2"/>
-    <tableColumn id="9" name="Average" dataDxfId="6"/>
-    <tableColumn id="10" name="Visualised3" dataDxfId="5"/>
-    <tableColumn id="11" name="Ram available (GB)4" dataDxfId="4"/>
-    <tableColumn id="12" name="Initial Memory to create TF device (mb)5" dataDxfId="3"/>
-    <tableColumn id="13" name="Final Memory to create TF device (mb)6" dataDxfId="2"/>
-    <tableColumn id="14" name="Min Frames7" dataDxfId="1"/>
+    <tableColumn id="9" name="Average" dataDxfId="12"/>
+    <tableColumn id="10" name="Visualised3" dataDxfId="11"/>
+    <tableColumn id="11" name="Ram available (GB)4" dataDxfId="10"/>
+    <tableColumn id="12" name="Initial Memory to create TF device (mb)5" dataDxfId="9"/>
+    <tableColumn id="13" name="Final Memory to create TF device (mb)6" dataDxfId="8"/>
+    <tableColumn id="14" name="Min Frames7" dataDxfId="7"/>
     <tableColumn id="15" name="Corresponding Objects8"/>
-    <tableColumn id="16" name="Max Frames 9" dataDxfId="0"/>
+    <tableColumn id="16" name="Max Frames 9" dataDxfId="6"/>
     <tableColumn id="17" name="Corresponding Objects10"/>
     <tableColumn id="18" name="Average11"/>
   </tableColumns>
@@ -2262,7 +2262,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="B3:S6" totalsRowShown="0" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="B3:S6" totalsRowShown="0" tableBorderDxfId="5">
   <autoFilter ref="B3:S6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Visualised"/>
@@ -2274,12 +2274,12 @@
     <tableColumn id="7" name="Max Frames "/>
     <tableColumn id="8" name="Corresponding Objects2"/>
     <tableColumn id="9" name="Average*"/>
-    <tableColumn id="10" name="Visualised3" dataDxfId="26"/>
+    <tableColumn id="10" name="Visualised3" dataDxfId="4"/>
     <tableColumn id="11" name="Ram available (mb)"/>
-    <tableColumn id="12" name="Initial Memory to create TF device (mb)2" dataDxfId="25"/>
-    <tableColumn id="13" name="Final Memory to create TF device (mb)2" dataDxfId="24"/>
-    <tableColumn id="14" name="Min Frames6" dataDxfId="23"/>
-    <tableColumn id="15" name="Corresponding Objects7" dataDxfId="22"/>
+    <tableColumn id="12" name="Initial Memory to create TF device (mb)2" dataDxfId="3"/>
+    <tableColumn id="13" name="Final Memory to create TF device (mb)2" dataDxfId="2"/>
+    <tableColumn id="14" name="Min Frames6" dataDxfId="1"/>
+    <tableColumn id="15" name="Corresponding Objects7" dataDxfId="0"/>
     <tableColumn id="16" name="Max Frames 8"/>
     <tableColumn id="17" name="Corresponding Objects9"/>
     <tableColumn id="18" name="Average*10"/>
@@ -2553,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2581,18 +2581,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
@@ -2822,18 +2822,18 @@
       <c r="J9" s="3"/>
     </row>
     <row r="11" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
@@ -3093,28 +3093,28 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="63" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="65"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="67"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3493,13 +3493,13 @@
       <c r="O10" s="6">
         <v>34.6</v>
       </c>
-      <c r="P10" s="70" t="s">
+      <c r="P10" s="59" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="6">
         <v>36</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="60" t="s">
         <v>11</v>
       </c>
       <c r="S10" s="7">
@@ -3549,13 +3549,13 @@
       <c r="O11" s="21">
         <v>33.200000000000003</v>
       </c>
-      <c r="P11" s="66" t="s">
+      <c r="P11" s="68" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="21">
         <v>34.700000000000003</v>
       </c>
-      <c r="R11" s="68" t="s">
+      <c r="R11" s="70" t="s">
         <v>11</v>
       </c>
       <c r="S11" s="4">
@@ -3605,11 +3605,11 @@
       <c r="O12" s="21">
         <v>33.1</v>
       </c>
-      <c r="P12" s="66"/>
+      <c r="P12" s="68"/>
       <c r="Q12" s="21">
         <v>34.799999999999997</v>
       </c>
-      <c r="R12" s="68"/>
+      <c r="R12" s="70"/>
       <c r="S12" s="4">
         <v>34.25</v>
       </c>
@@ -3657,11 +3657,11 @@
       <c r="O13" s="10">
         <v>33.1</v>
       </c>
-      <c r="P13" s="67"/>
+      <c r="P13" s="69"/>
       <c r="Q13" s="11">
         <v>35.5</v>
       </c>
-      <c r="R13" s="69"/>
+      <c r="R13" s="71"/>
       <c r="S13" s="12">
         <v>34.78</v>
       </c>
@@ -3721,28 +3721,28 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="63" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="65"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="67"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4198,7 +4198,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>IdFRCQ1XQiAWlucJ+5viAg==</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
+<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
 </file>
 
 <file path=customXml/item10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4242,7 +4242,7 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docOwner>Z632919</NovaPath_docOwner>
+<NovaPath_DocInfoFromAfterSave>False</NovaPath_DocInfoFromAfterSave>
 </file>
 
 <file path=customXml/item20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4266,11 +4266,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_DocInfoFromAfterSave>False</NovaPath_DocInfoFromAfterSave>
+<NovaPath_docOwner>Z632919</NovaPath_docOwner>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
+<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>IdFRCQ1XQiAWlucJ+5viAg==</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4294,145 +4294,145 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED771FD-2FB0-4DA5-8965-C640844BF317}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477B45B0-16EC-44D6-B366-D61608B89007}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DC71D57-80A7-45B9-86B2-F45A5C0215D8}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729A84B1-8933-4483-B0EE-938B5A2641C1}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps13.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2C9DF91-A25F-467B-81AA-F0730D2DFF80}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FAA37E-4179-488D-B252-AC02D0EA3ABE}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC70299A-9001-47B6-A6C8-E55959700A53}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps16.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF4EC5DE-AE87-4A22-9B60-6E5F2536FC74}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps17.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEFCBE40-7121-461B-BE32-636787050E46}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps18.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59586A17-2C05-46C0-A37D-D0679F46C3C1}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps19.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62275974-A7C1-41BB-A8D8-AD8AE72492CE}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9477AD9C-9C72-46A5-AB09-677532F6E430}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps20.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BDEE2F7-77FB-4E6D-9CA9-7DBBDD79E9B3}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps21.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CE77D8E-BD7E-4432-8C16-F3630484B57B}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps22.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81784021-7774-4440-A0DC-42E3C8E3EA1F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps23.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CF69520-C046-4B4B-AC6E-C13E427DAFCD}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps24.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED25405-D730-4B58-BAF9-3068E93B217D}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A81732-E2D4-4D8A-8208-3E04E46823C4}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B5278AB-27B5-4AF5-B149-9691ACE1EC24}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C31FA2-C926-49E2-B7C2-06B5B9ABA510}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E24A54CC-1538-4BB6-913D-0BE75CF9BDB6}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B39A1B84-0D38-42C6-8973-533BBF5B6CCA}">
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80C5F98E-05F4-444B-812C-5604A485C49B}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE151E0B-0B68-4619-AE83-1F09D361E3BE}">
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ECAB1DF-CB19-4A77-9B3D-9F0AB7422F7F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps13.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015DE12A-A8DD-48C2-9018-D40AB3C747B9}">
+<file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{484497B1-6BA2-437D-8922-ADB79E1EF523}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5C950C7-F4F4-410D-B893-83EAAD86930E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D2693B-E83D-4CB3-911A-FDBF1CC2E2D5}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps16.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1B49B7-5B06-44CC-A63D-3BA8EE14E305}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps17.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6665CC0-B974-4D2A-BEA9-17277030F70C}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps18.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4B9D10-E88D-4FA8-8FBD-3C9AADC5663B}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps19.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93898E1F-5491-4083-A67A-CE362627A161}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A81732-E2D4-4D8A-8208-3E04E46823C4}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps20.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAA36DFC-9192-4890-BCFD-A1B095498272}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps21.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{636B05FA-D389-455A-8E7F-3FFD456D2139}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps22.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99381432-A869-4D41-91FD-353CE1ECF154}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps23.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4BE9E68-EFB6-42C8-9C53-1827CC6CB08F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps24.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBDB81D9-D63E-45C1-B724-5B2D121B4049}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9477AD9C-9C72-46A5-AB09-677532F6E430}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED771FD-2FB0-4DA5-8965-C640844BF317}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB69F616-E940-42D9-820B-77D9BFA484DE}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65674267-A62E-45FB-B2F4-386F5B4F9D30}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46DFBCC-4813-4D35-AC62-E229FCC45C22}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4776C855-7E55-4A00-B6BB-CD4940A83408}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps9.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21755D1F-639F-439C-8548-70F1BB8B68DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25BA0AC6-FE29-43CE-A39C-2F97C2335F7F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>